--- a/medicine/Enfance/Madeleine_L'Engle/Madeleine_L'Engle.xlsx
+++ b/medicine/Enfance/Madeleine_L'Engle/Madeleine_L'Engle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Madeleine_L%27Engle</t>
+          <t>Madeleine_L'Engle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Madeleine L'Engle, née le 29 novembre 1918 à New York et morte le 6 septembre 2007 à Litchfield dans le Connecticut, est une écrivaine américaine spécialisée dans la littérature pour les adolescents.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Madeleine_L%27Engle</t>
+          <t>Madeleine_L'Engle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Quelques ouvrages de Madeleine L'Engle ont été traduits en français[1].
-Kairos
-Première génération (Murry) (Time Quintet (en))
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques ouvrages de Madeleine L'Engle ont été traduits en français.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Madeleine_L'Engle</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kairos</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première génération (Murry) (Time Quintet (en))
 (en) Madeleine Engle, A Wrinkle in Time, New York, Farrar, Straus, and Giroux, 1962, 203 p. (ISBN 0-374-38613-7) (Médaille Newbery) Madeleine Engle, Un raccourci dans le temps, Paris, Pocket Jeunesse, 1998, 254 p. (ISBN 978-2-266-08159-7) (adapté pour la télévision sous le titre Les Aventuriers des mondes fantastiques et au cinéma en 2018 sous le même titre que le roman)
 (en) Madeleine Engle, A Wind in the door, New York, Farrar, Straus and Giroux, 1973, 211 p. (ISBN 0-374-38443-6) Madeleine Engle, Le vent dans la porte, Paris, Pocket, 1999, 267 p. (ISBN 978-2-266-08161-0)
 (en) Madeleine Engle, A Swiftly Tilting Planet, New York, NY, Square Fish/Farrar, Straus and Giroux, 1978 (ISBN 0374373620) Madeleine Engle (trad. de l'anglais), Une terre à la dérive, Paris, Pocket, 1999, 329 p. (ISBN 2-266-08160-8)
@@ -524,18 +573,86 @@
 Seconde génération (O'Keefe)
 (en) Madeleine Engle, The arm of the starfish, New York, Farrar, Straus and Giroux, 1965, 243 p. (ISBN 0-374-30396-7)
 (en) Madeleine Engle, Dragons in the waters, New York, Farrar, Straus, Giroux, 1976 (ISBN 0-374-31868-9)
-(en) Madeleine Engle, A House Like a Lotus, New York, Farrar, Straus, Giroux, 1984, 307 p. (ISBN 0-374-33385-8)
-Chronos
-(en) Madeleine Engle, Meet the Austins, New York, Farrar, Straus Giroux, 1997 (1re éd. 1960), 216 p. (ISBN 0-374-34929-0)
+(en) Madeleine Engle, A House Like a Lotus, New York, Farrar, Straus, Giroux, 1984, 307 p. (ISBN 0-374-33385-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Madeleine_L'Engle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chronos</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Madeleine Engle, Meet the Austins, New York, Farrar, Straus Giroux, 1997 (1re éd. 1960), 216 p. (ISBN 0-374-34929-0)
 (en) Madeleine Engle, The moon by night, New York, Ariel Books, 1963, 218 p. (ISBN 0-374-35049-3)
 (en) Madeleine Engle, The young unicorns, New York, Farrar, Straus and Giroux, 1968, 245 p. (ISBN 0-374-38778-8)
 (en) Madeleine Engle, A ring of endless light, New York, Farrar, Straus, Giroux, 1980, 324 p. (ISBN 0-374-36299-8) (Newbery Honor Book)
 (en) Madeleine Engle, The anti-muffins, New York, Pilgrim Press, 1980 (ISBN 0-8298-0415-3)
 (en) Madeleine Engle, The twenty-four days before Christmas : an Austin family story, Wheaton, Ill, H. Shaw Publishers, 1984 (ISBN 0-87788-843-4)
 (en) Madeleine Engle, Troubling a star, New York, Farrar, Straus, Giroux, 1994, 296 p. (ISBN 0-374-37783-9)
-(en) Madeleine Engle, A full house : an Austin family Christmas, Wheaton, Ill, Harold Shaw Publishers, 1999, 44 p. (ISBN 0-87788-020-4)
-Autres fictions
-Série Katherine Forrester :
+(en) Madeleine Engle, A full house : an Austin family Christmas, Wheaton, Ill, Harold Shaw Publishers, 1999, 44 p. (ISBN 0-87788-020-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Madeleine_L'Engle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres fictions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Série Katherine Forrester :
 (en) Madeleine Engle, The small rain, New York, Farrar, Straus, Giroux, 1984 (1re éd. 1945) (ISBN 0-374-26637-9)
 (en) Madeleine Engle, A severed wasp, New York, Farrar, Straus, Giroux, 1982, 289 p. (ISBN 0-374-26131-8)
 Camilla Dickinson:
@@ -550,25 +667,195 @@
 (en) Madeleine Engle, The other side of the sun, New York, Farrar, Straus &amp; Giroux, 1971 (ISBN 0-374-22805-1)
 Dance in the Desert (en) (1969, 1988),  (ISBN 0-374-41684-2)
 (en) Madeleine Engle, Certain women, New York, Farrar, Straus, Giroux, 1992 (réimpr. 1996), 351 p. (ISBN 0-374-12025-0)
-(en) Madeleine Engle, The joys of love, New York, Farrar Straus Giroux, 2008, 255 p. (ISBN 978-0-374-33870-1 et 0-374-33870-1)
-The Crosswicks Journals
-(en) Madeleine Engle, A circle of quiet, New York, Farrar, Straus and Giroux, 1972, 245 p. (ISBN 0-374-12374-8)
+(en) Madeleine Engle, The joys of love, New York, Farrar Straus Giroux, 2008, 255 p. (ISBN 978-0-374-33870-1 et 0-374-33870-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Madeleine_L'Engle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>The Crosswicks Journals</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Madeleine Engle, A circle of quiet, New York, Farrar, Straus and Giroux, 1972, 245 p. (ISBN 0-374-12374-8)
 (en) Madeleine Engle, The summer of the great-grandmother, New York, Farrar, Straus and Giroux, 1974 (ISBN 0-374-27174-7)
 (en) Madeleine Engle, The irrational season, New York, Farrar, Straus and Giroux, 1987 (1re éd. 1977) (ISBN 0-374-17733-3)
-(en) Madeleine Engle, Two-part invention : the story of a marriage, New York, Farrar, Straus &amp; Giroux, 1988 (ISBN 0-374-28020-7)
-The Genesis Trilogy
-(en) Madeleine Engle, And it was good, reflections on beginnings, Wheaton, Ill, H. Shaw Publishers, 1983, 213 p. (ISBN 0-87788-046-8)
+(en) Madeleine Engle, Two-part invention : the story of a marriage, New York, Farrar, Straus &amp; Giroux, 1988 (ISBN 0-374-28020-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Madeleine_L'Engle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>The Genesis Trilogy</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Madeleine Engle, And it was good, reflections on beginnings, Wheaton, Ill, H. Shaw Publishers, 1983, 213 p. (ISBN 0-87788-046-8)
 (en) Madeleine Engle, A stone for a pillow, Wheaton, Ill, H. Shaw, 1986, 240 p. (ISBN 0-87788-789-6)
-(en) Madeleine Engle, Sold into Egypt : Joseph's journey into human being, Wheaton, Ill, H. Shaw Publishers, 1989, 235 p. (ISBN 0-87788-766-7)
-Poésie
-Lines Scribbled on an Envelope (1969)
+(en) Madeleine Engle, Sold into Egypt : Joseph's journey into human being, Wheaton, Ill, H. Shaw Publishers, 1989, 235 p. (ISBN 0-87788-766-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Madeleine_L'Engle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lines Scribbled on an Envelope (1969)
 The Weather of the Heart (1978)
 A Cry Like a Bell (1987)
-The Ordering of Love: The New and Collected Poems of Madeleine L'Engle (2005) (includes reprints from the above)
-Enfants
-L'autre petit chien (2001)
-Religion, arts, et autobiographie
-(en) Madeleine Engle, Walking on water : reflections on faith and art, Wheaton, Ill, H. Shaw, 1998 (1re éd. 1982), 227 p. (ISBN 0-87788-896-5)
+The Ordering of Love: The New and Collected Poems of Madeleine L'Engle (2005) (includes reprints from the above)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Madeleine_L'Engle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Enfants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'autre petit chien (2001)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Madeleine_L'Engle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Religion, arts, et autobiographie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) Madeleine Engle, Walking on water : reflections on faith and art, Wheaton, Ill, H. Shaw, 1998 (1re éd. 1982), 227 p. (ISBN 0-87788-896-5)
 (en) Madeleine Engle, The glorious impossible, New York, Simon and Schuster Books for Young Readers, 1990, 64 p. (ISBN 0-671-68690-9 et 978-0-671-68690-1)
 (en) Madeleine Engle, The rock that is higher : story as truth, Wheaton, Ill, H. Shaw Publishers, 1993, 296 p. (ISBN 0-87788-726-8, LCCN 92024204, présentation en ligne)
 (en) Madeleine Engle, Penguins + golden calves : icons and idols, Wheaton, IL, H. Shaw, 1996 (réimpr. 2003) (ISBN 0-87788-631-8, présentation en ligne)
@@ -578,103 +865,180 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Madeleine_L%27Engle</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Madeleine_L'Engle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1963 : Médaille Newbery pour A Wrinkle of Time (Un raccourci dans le temps)
-1964 : (international) « Runner-Up List »[2], de l' IBBY, pour A Wrinkle of Time (Un raccourci dans le temps)
+1964 : (international) « Runner-Up List », de l' IBBY, pour A Wrinkle of Time (Un raccourci dans le temps)
 1997 : « Grand Maître » Prix World Fantasy
 1998 : Margaret Edwards Award
 2004 : National Humanities Medal</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Madeleine_L%27Engle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Madeleine_L'Engle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2013, un cratère de la planète Mercure est nommé L'Engle en son honneur[3].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2013, un cratère de la planète Mercure est nommé L'Engle en son honneur.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Madeleine_L%27Engle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Madeleine_L'Engle</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Au cinéma
-Un raccourci dans le temps, d'après son roman éponyme, réalisé par Ava DuVernay, 2018.
-A la télévision
-Les Aventuriers des mondes fantastiques, d'après son roman Un raccourci dans le temps,  réalisé par John Kent Harrison, 2003.
-En bande dessinée
-A Wrinkle in Time, dessins de Hope Larson, d'après son roman éponyme, Farrar, Straus and Giroux, 2012.</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Un raccourci dans le temps, d'après son roman éponyme, réalisé par Ava DuVernay, 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Madeleine_L'Engle</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Adaptations de son œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A la télévision</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Les Aventuriers des mondes fantastiques, d'après son roman Un raccourci dans le temps,  réalisé par John Kent Harrison, 2003.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Madeleine_L'Engle</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_L%27Engle</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Adaptations de son œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>En bande dessinée</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A Wrinkle in Time, dessins de Hope Larson, d'après son roman éponyme, Farrar, Straus and Giroux, 2012.</t>
         </is>
       </c>
     </row>
